--- a/Output/PeakBased.xlsx
+++ b/Output/PeakBased.xlsx
@@ -69,26 +69,140 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:EA3"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="6.140625" customWidth="true"/>
-    <col min="2" max="2" width="3.140625" customWidth="true"/>
-    <col min="3" max="3" width="4.7109375" customWidth="true"/>
-    <col min="4" max="4" width="5.7109375" customWidth="true"/>
-    <col min="5" max="5" width="5.7109375" customWidth="true"/>
-    <col min="6" max="6" width="5.7109375" customWidth="true"/>
-    <col min="7" max="7" width="5.7109375" customWidth="true"/>
-    <col min="8" max="8" width="5.7109375" customWidth="true"/>
-    <col min="9" max="9" width="6.42578125" customWidth="true"/>
-    <col min="10" max="10" width="3.85546875" customWidth="true"/>
-    <col min="11" max="11" width="5.42578125" customWidth="true"/>
-    <col min="12" max="12" width="6.42578125" customWidth="true"/>
-    <col min="13" max="13" width="6.42578125" customWidth="true"/>
-    <col min="14" max="14" width="6.42578125" customWidth="true"/>
-    <col min="15" max="15" width="6.42578125" customWidth="true"/>
-    <col min="16" max="16" width="6.42578125" customWidth="true"/>
-    <col min="17" max="17" width="5.7109375" customWidth="true"/>
+    <col min="2" max="2" width="11.7109375" customWidth="true"/>
+    <col min="3" max="3" width="11.7109375" customWidth="true"/>
+    <col min="4" max="4" width="11.7109375" customWidth="true"/>
+    <col min="5" max="5" width="11.7109375" customWidth="true"/>
+    <col min="6" max="6" width="3.140625" customWidth="true"/>
+    <col min="7" max="7" width="11.7109375" customWidth="true"/>
+    <col min="8" max="8" width="11.7109375" customWidth="true"/>
+    <col min="9" max="9" width="11.7109375" customWidth="true"/>
+    <col min="10" max="10" width="11.7109375" customWidth="true"/>
+    <col min="11" max="11" width="11.7109375" customWidth="true"/>
+    <col min="12" max="12" width="11.7109375" customWidth="true"/>
+    <col min="13" max="13" width="11.7109375" customWidth="true"/>
+    <col min="14" max="14" width="15.5703125" customWidth="true"/>
+    <col min="15" max="15" width="12.42578125" customWidth="true"/>
+    <col min="16" max="16" width="12.42578125" customWidth="true"/>
+    <col min="17" max="17" width="12.42578125" customWidth="true"/>
+    <col min="18" max="18" width="12.42578125" customWidth="true"/>
+    <col min="19" max="19" width="12.42578125" customWidth="true"/>
+    <col min="20" max="20" width="12.42578125" customWidth="true"/>
+    <col min="21" max="21" width="12.42578125" customWidth="true"/>
+    <col min="22" max="22" width="3.85546875" customWidth="true"/>
+    <col min="23" max="23" width="12.42578125" customWidth="true"/>
+    <col min="24" max="24" width="12.42578125" customWidth="true"/>
+    <col min="25" max="25" width="12.42578125" customWidth="true"/>
+    <col min="26" max="26" width="12.42578125" customWidth="true"/>
+    <col min="27" max="27" width="12.42578125" customWidth="true"/>
+    <col min="28" max="28" width="12.42578125" customWidth="true"/>
+    <col min="29" max="29" width="12.42578125" customWidth="true"/>
+    <col min="30" max="30" width="16.28515625" customWidth="true"/>
+    <col min="31" max="31" width="11.7109375" customWidth="true"/>
+    <col min="32" max="32" width="11.7109375" customWidth="true"/>
+    <col min="33" max="33" width="11.7109375" customWidth="true"/>
+    <col min="34" max="34" width="11.7109375" customWidth="true"/>
+    <col min="35" max="35" width="11.7109375" customWidth="true"/>
+    <col min="36" max="36" width="11.7109375" customWidth="true"/>
+    <col min="37" max="37" width="11.7109375" customWidth="true"/>
+    <col min="38" max="38" width="3.140625" customWidth="true"/>
+    <col min="39" max="39" width="11.7109375" customWidth="true"/>
+    <col min="40" max="40" width="11.7109375" customWidth="true"/>
+    <col min="41" max="41" width="11.7109375" customWidth="true"/>
+    <col min="42" max="42" width="11.7109375" customWidth="true"/>
+    <col min="43" max="43" width="11.7109375" customWidth="true"/>
+    <col min="44" max="44" width="11.7109375" customWidth="true"/>
+    <col min="45" max="45" width="11.7109375" customWidth="true"/>
+    <col min="46" max="46" width="15.5703125" customWidth="true"/>
+    <col min="47" max="47" width="12.42578125" customWidth="true"/>
+    <col min="48" max="48" width="12.42578125" customWidth="true"/>
+    <col min="49" max="49" width="12.42578125" customWidth="true"/>
+    <col min="50" max="50" width="12.42578125" customWidth="true"/>
+    <col min="51" max="51" width="12.42578125" customWidth="true"/>
+    <col min="52" max="52" width="12.42578125" customWidth="true"/>
+    <col min="53" max="53" width="12.42578125" customWidth="true"/>
+    <col min="54" max="54" width="3.85546875" customWidth="true"/>
+    <col min="55" max="55" width="12.42578125" customWidth="true"/>
+    <col min="56" max="56" width="12.42578125" customWidth="true"/>
+    <col min="57" max="57" width="12.42578125" customWidth="true"/>
+    <col min="58" max="58" width="12.42578125" customWidth="true"/>
+    <col min="59" max="59" width="12.42578125" customWidth="true"/>
+    <col min="60" max="60" width="12.42578125" customWidth="true"/>
+    <col min="61" max="61" width="12.42578125" customWidth="true"/>
+    <col min="62" max="62" width="16.28515625" customWidth="true"/>
+    <col min="63" max="63" width="11.7109375" customWidth="true"/>
+    <col min="64" max="64" width="11.7109375" customWidth="true"/>
+    <col min="65" max="65" width="11.7109375" customWidth="true"/>
+    <col min="66" max="66" width="11.7109375" customWidth="true"/>
+    <col min="67" max="67" width="11.7109375" customWidth="true"/>
+    <col min="68" max="68" width="11.7109375" customWidth="true"/>
+    <col min="69" max="69" width="11.7109375" customWidth="true"/>
+    <col min="70" max="70" width="11.7109375" customWidth="true"/>
+    <col min="71" max="71" width="11.7109375" customWidth="true"/>
+    <col min="72" max="72" width="11.7109375" customWidth="true"/>
+    <col min="73" max="73" width="9.7109375" customWidth="true"/>
+    <col min="74" max="74" width="11.7109375" customWidth="true"/>
+    <col min="75" max="75" width="12.42578125" customWidth="true"/>
+    <col min="76" max="76" width="12.42578125" customWidth="true"/>
+    <col min="77" max="77" width="12.42578125" customWidth="true"/>
+    <col min="78" max="78" width="12.42578125" customWidth="true"/>
+    <col min="79" max="79" width="12.42578125" customWidth="true"/>
+    <col min="80" max="80" width="12.42578125" customWidth="true"/>
+    <col min="81" max="81" width="12.42578125" customWidth="true"/>
+    <col min="82" max="82" width="11.42578125" customWidth="true"/>
+    <col min="83" max="83" width="11.42578125" customWidth="true"/>
+    <col min="84" max="84" width="12.42578125" customWidth="true"/>
+    <col min="85" max="85" width="12.42578125" customWidth="true"/>
+    <col min="86" max="86" width="11.42578125" customWidth="true"/>
+    <col min="87" max="87" width="10.42578125" customWidth="true"/>
+    <col min="88" max="88" width="12.42578125" customWidth="true"/>
+    <col min="89" max="89" width="12.42578125" customWidth="true"/>
+    <col min="90" max="90" width="11.7109375" customWidth="true"/>
+    <col min="91" max="91" width="11.7109375" customWidth="true"/>
+    <col min="92" max="92" width="11.7109375" customWidth="true"/>
+    <col min="93" max="93" width="11.7109375" customWidth="true"/>
+    <col min="94" max="94" width="11.7109375" customWidth="true"/>
+    <col min="95" max="95" width="11.7109375" customWidth="true"/>
+    <col min="96" max="96" width="11.7109375" customWidth="true"/>
+    <col min="97" max="97" width="11.7109375" customWidth="true"/>
+    <col min="98" max="98" width="11.7109375" customWidth="true"/>
+    <col min="99" max="99" width="11.7109375" customWidth="true"/>
+    <col min="100" max="100" width="11.7109375" customWidth="true"/>
+    <col min="101" max="101" width="11.7109375" customWidth="true"/>
+    <col min="102" max="102" width="11.7109375" customWidth="true"/>
+    <col min="103" max="103" width="11.7109375" customWidth="true"/>
+    <col min="104" max="104" width="11.7109375" customWidth="true"/>
+    <col min="105" max="105" width="11.7109375" customWidth="true"/>
+    <col min="106" max="106" width="11.7109375" customWidth="true"/>
+    <col min="107" max="107" width="12.42578125" customWidth="true"/>
+    <col min="108" max="108" width="12.42578125" customWidth="true"/>
+    <col min="109" max="109" width="12.42578125" customWidth="true"/>
+    <col min="110" max="110" width="12.42578125" customWidth="true"/>
+    <col min="111" max="111" width="12.42578125" customWidth="true"/>
+    <col min="112" max="112" width="12.42578125" customWidth="true"/>
+    <col min="113" max="113" width="12.42578125" customWidth="true"/>
+    <col min="114" max="114" width="12.42578125" customWidth="true"/>
+    <col min="115" max="115" width="12.42578125" customWidth="true"/>
+    <col min="116" max="116" width="12.42578125" customWidth="true"/>
+    <col min="117" max="117" width="11.42578125" customWidth="true"/>
+    <col min="118" max="118" width="12.42578125" customWidth="true"/>
+    <col min="119" max="119" width="12.42578125" customWidth="true"/>
+    <col min="120" max="120" width="12.42578125" customWidth="true"/>
+    <col min="121" max="121" width="12.42578125" customWidth="true"/>
+    <col min="122" max="122" width="12.42578125" customWidth="true"/>
+    <col min="123" max="123" width="11.7109375" customWidth="true"/>
+    <col min="124" max="124" width="11.7109375" customWidth="true"/>
+    <col min="125" max="125" width="11.7109375" customWidth="true"/>
+    <col min="126" max="126" width="11.7109375" customWidth="true"/>
+    <col min="127" max="127" width="11.7109375" customWidth="true"/>
+    <col min="128" max="128" width="11.7109375" customWidth="true"/>
+    <col min="129" max="129" width="11.7109375" customWidth="true"/>
+    <col min="130" max="130" width="11.7109375" customWidth="true"/>
+    <col min="131" max="131" width="11.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -143,58 +257,742 @@
       <c r="Q1" s="0">
         <v>15</v>
       </c>
+      <c r="R1" s="0">
+        <v>16</v>
+      </c>
+      <c r="S1" s="0">
+        <v>17</v>
+      </c>
+      <c r="T1" s="0">
+        <v>18</v>
+      </c>
+      <c r="U1" s="0">
+        <v>19</v>
+      </c>
+      <c r="V1" s="0">
+        <v>20</v>
+      </c>
+      <c r="W1" s="0">
+        <v>21</v>
+      </c>
+      <c r="X1" s="0">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="0">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="0">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="0">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="0">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="0">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="0">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="0">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="0">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="0">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="0">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="0">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="0">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="0">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="0">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="0">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="0">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="0">
+        <v>39</v>
+      </c>
+      <c r="AP1" s="0">
+        <v>40</v>
+      </c>
+      <c r="AQ1" s="0">
+        <v>41</v>
+      </c>
+      <c r="AR1" s="0">
+        <v>42</v>
+      </c>
+      <c r="AS1" s="0">
+        <v>43</v>
+      </c>
+      <c r="AT1" s="0">
+        <v>44</v>
+      </c>
+      <c r="AU1" s="0">
+        <v>45</v>
+      </c>
+      <c r="AV1" s="0">
+        <v>46</v>
+      </c>
+      <c r="AW1" s="0">
+        <v>47</v>
+      </c>
+      <c r="AX1" s="0">
+        <v>48</v>
+      </c>
+      <c r="AY1" s="0">
+        <v>49</v>
+      </c>
+      <c r="AZ1" s="0">
+        <v>50</v>
+      </c>
+      <c r="BA1" s="0">
+        <v>51</v>
+      </c>
+      <c r="BB1" s="0">
+        <v>52</v>
+      </c>
+      <c r="BC1" s="0">
+        <v>53</v>
+      </c>
+      <c r="BD1" s="0">
+        <v>54</v>
+      </c>
+      <c r="BE1" s="0">
+        <v>55</v>
+      </c>
+      <c r="BF1" s="0">
+        <v>56</v>
+      </c>
+      <c r="BG1" s="0">
+        <v>57</v>
+      </c>
+      <c r="BH1" s="0">
+        <v>58</v>
+      </c>
+      <c r="BI1" s="0">
+        <v>59</v>
+      </c>
+      <c r="BJ1" s="0">
+        <v>60</v>
+      </c>
+      <c r="BK1" s="0">
+        <v>61</v>
+      </c>
+      <c r="BL1" s="0">
+        <v>62</v>
+      </c>
+      <c r="BM1" s="0">
+        <v>63</v>
+      </c>
+      <c r="BN1" s="0">
+        <v>64</v>
+      </c>
+      <c r="BO1" s="0">
+        <v>65</v>
+      </c>
+      <c r="BP1" s="0">
+        <v>66</v>
+      </c>
+      <c r="BQ1" s="0">
+        <v>67</v>
+      </c>
+      <c r="BR1" s="0">
+        <v>68</v>
+      </c>
+      <c r="BS1" s="0">
+        <v>69</v>
+      </c>
+      <c r="BT1" s="0">
+        <v>70</v>
+      </c>
+      <c r="BU1" s="0">
+        <v>71</v>
+      </c>
+      <c r="BV1" s="0">
+        <v>72</v>
+      </c>
+      <c r="BW1" s="0">
+        <v>73</v>
+      </c>
+      <c r="BX1" s="0">
+        <v>74</v>
+      </c>
+      <c r="BY1" s="0">
+        <v>75</v>
+      </c>
+      <c r="BZ1" s="0">
+        <v>76</v>
+      </c>
+      <c r="CA1" s="0">
+        <v>77</v>
+      </c>
+      <c r="CB1" s="0">
+        <v>78</v>
+      </c>
+      <c r="CC1" s="0">
+        <v>79</v>
+      </c>
+      <c r="CD1" s="0">
+        <v>80</v>
+      </c>
+      <c r="CE1" s="0">
+        <v>81</v>
+      </c>
+      <c r="CF1" s="0">
+        <v>82</v>
+      </c>
+      <c r="CG1" s="0">
+        <v>83</v>
+      </c>
+      <c r="CH1" s="0">
+        <v>84</v>
+      </c>
+      <c r="CI1" s="0">
+        <v>85</v>
+      </c>
+      <c r="CJ1" s="0">
+        <v>86</v>
+      </c>
+      <c r="CK1" s="0">
+        <v>87</v>
+      </c>
+      <c r="CL1" s="0">
+        <v>88</v>
+      </c>
+      <c r="CM1" s="0">
+        <v>89</v>
+      </c>
+      <c r="CN1" s="0">
+        <v>90</v>
+      </c>
+      <c r="CO1" s="0">
+        <v>91</v>
+      </c>
+      <c r="CP1" s="0">
+        <v>92</v>
+      </c>
+      <c r="CQ1" s="0">
+        <v>93</v>
+      </c>
+      <c r="CR1" s="0">
+        <v>94</v>
+      </c>
+      <c r="CS1" s="0">
+        <v>95</v>
+      </c>
+      <c r="CT1" s="0">
+        <v>96</v>
+      </c>
+      <c r="CU1" s="0">
+        <v>97</v>
+      </c>
+      <c r="CV1" s="0">
+        <v>98</v>
+      </c>
+      <c r="CW1" s="0">
+        <v>99</v>
+      </c>
+      <c r="CX1" s="0">
+        <v>100</v>
+      </c>
+      <c r="CY1" s="0">
+        <v>101</v>
+      </c>
+      <c r="CZ1" s="0">
+        <v>102</v>
+      </c>
+      <c r="DA1" s="0">
+        <v>103</v>
+      </c>
+      <c r="DB1" s="0">
+        <v>104</v>
+      </c>
+      <c r="DC1" s="0">
+        <v>105</v>
+      </c>
+      <c r="DD1" s="0">
+        <v>106</v>
+      </c>
+      <c r="DE1" s="0">
+        <v>107</v>
+      </c>
+      <c r="DF1" s="0">
+        <v>108</v>
+      </c>
+      <c r="DG1" s="0">
+        <v>109</v>
+      </c>
+      <c r="DH1" s="0">
+        <v>110</v>
+      </c>
+      <c r="DI1" s="0">
+        <v>111</v>
+      </c>
+      <c r="DJ1" s="0">
+        <v>112</v>
+      </c>
+      <c r="DK1" s="0">
+        <v>113</v>
+      </c>
+      <c r="DL1" s="0">
+        <v>114</v>
+      </c>
+      <c r="DM1" s="0">
+        <v>115</v>
+      </c>
+      <c r="DN1" s="0">
+        <v>116</v>
+      </c>
+      <c r="DO1" s="0">
+        <v>117</v>
+      </c>
+      <c r="DP1" s="0">
+        <v>118</v>
+      </c>
+      <c r="DQ1" s="0">
+        <v>119</v>
+      </c>
+      <c r="DR1" s="0">
+        <v>120</v>
+      </c>
+      <c r="DS1" s="0">
+        <v>121</v>
+      </c>
+      <c r="DT1" s="0">
+        <v>122</v>
+      </c>
+      <c r="DU1" s="0">
+        <v>123</v>
+      </c>
+      <c r="DV1" s="0">
+        <v>124</v>
+      </c>
+      <c r="DW1" s="0">
+        <v>125</v>
+      </c>
+      <c r="DX1" s="0">
+        <v>126</v>
+      </c>
+      <c r="DY1" s="0">
+        <v>127</v>
+      </c>
+      <c r="DZ1" s="0">
+        <v>128</v>
+      </c>
+      <c r="EA1" s="0">
+        <v>129</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="0">
-        <v>45</v>
+        <v>8.4852813742385695</v>
       </c>
       <c r="C2" s="0">
-        <v>71.400000000000006</v>
+        <v>9.9776353476305424</v>
       </c>
       <c r="D2" s="0">
-        <v>86.930000000000007</v>
+        <v>11.08655439013544</v>
       </c>
       <c r="E2" s="0">
-        <v>89.230000000000004</v>
+        <v>11.769423364838765</v>
       </c>
       <c r="F2" s="0">
-        <v>77.939999999999998</v>
+        <v>12</v>
       </c>
       <c r="G2" s="0">
-        <v>54.780000000000001</v>
+        <v>11.769423364838765</v>
       </c>
       <c r="H2" s="0">
-        <v>23.289999999999999</v>
+        <v>11.08655439013544</v>
       </c>
       <c r="I2" s="0">
-        <v>-11.74</v>
+        <v>9.9776353476305442</v>
       </c>
       <c r="J2" s="0">
-        <v>-45</v>
+        <v>8.4852813742385713</v>
       </c>
       <c r="K2" s="0">
-        <v>-71.400000000000006</v>
+        <v>6.6668427962352261</v>
       </c>
       <c r="L2" s="0">
-        <v>-86.930000000000007</v>
+        <v>4.5922011883810789</v>
       </c>
       <c r="M2" s="0">
-        <v>-89.230000000000004</v>
+        <v>2.3410838641935432</v>
       </c>
       <c r="N2" s="0">
-        <v>-77.939999999999998</v>
+        <v>1.4695761589768238e-15</v>
       </c>
       <c r="O2" s="0">
-        <v>-54.780000000000001</v>
+        <v>-2.3410838641935401</v>
       </c>
       <c r="P2" s="0">
-        <v>-23.289999999999999</v>
+        <v>-4.5922011883810763</v>
       </c>
       <c r="Q2" s="0">
-        <v>11.74</v>
+        <v>-6.6668427962352235</v>
+      </c>
+      <c r="R2" s="0">
+        <v>-8.4852813742385695</v>
+      </c>
+      <c r="S2" s="0">
+        <v>-9.9776353476305424</v>
+      </c>
+      <c r="T2" s="0">
+        <v>-11.086554390135438</v>
+      </c>
+      <c r="U2" s="0">
+        <v>-11.769423364838763</v>
+      </c>
+      <c r="V2" s="0">
+        <v>-12</v>
+      </c>
+      <c r="W2" s="0">
+        <v>-11.769423364838765</v>
+      </c>
+      <c r="X2" s="0">
+        <v>-11.086554390135444</v>
+      </c>
+      <c r="Y2" s="0">
+        <v>-9.9776353476305459</v>
+      </c>
+      <c r="Z2" s="0">
+        <v>-8.4852813742385713</v>
+      </c>
+      <c r="AA2" s="0">
+        <v>-6.6668427962352261</v>
+      </c>
+      <c r="AB2" s="0">
+        <v>-4.5922011883810745</v>
+      </c>
+      <c r="AC2" s="0">
+        <v>-2.3410838641935445</v>
+      </c>
+      <c r="AD2" s="0">
+        <v>-2.9391523179536475e-15</v>
+      </c>
+      <c r="AE2" s="0">
+        <v>2.3410838641935392</v>
+      </c>
+      <c r="AF2" s="0">
+        <v>4.5922011883810692</v>
+      </c>
+      <c r="AG2" s="0">
+        <v>6.6668427962352226</v>
+      </c>
+      <c r="AH2" s="0">
+        <v>8.4852813742385678</v>
+      </c>
+      <c r="AI2" s="0">
+        <v>9.9776353476305424</v>
+      </c>
+      <c r="AJ2" s="0">
+        <v>11.086554390135442</v>
+      </c>
+      <c r="AK2" s="0">
+        <v>11.769423364838763</v>
+      </c>
+      <c r="AL2" s="0">
+        <v>12</v>
+      </c>
+      <c r="AM2" s="0">
+        <v>11.769423364838763</v>
+      </c>
+      <c r="AN2" s="0">
+        <v>11.08655439013544</v>
+      </c>
+      <c r="AO2" s="0">
+        <v>9.9776353476305459</v>
+      </c>
+      <c r="AP2" s="0">
+        <v>8.4852813742385802</v>
+      </c>
+      <c r="AQ2" s="0">
+        <v>6.6668427962352457</v>
+      </c>
+      <c r="AR2" s="0">
+        <v>4.5922011883810665</v>
+      </c>
+      <c r="AS2" s="0">
+        <v>2.3410838641935356</v>
+      </c>
+      <c r="AT2" s="0">
+        <v>4.4087284769304716e-15</v>
+      </c>
+      <c r="AU2" s="0">
+        <v>-2.3410838641935268</v>
+      </c>
+      <c r="AV2" s="0">
+        <v>-4.5922011883810576</v>
+      </c>
+      <c r="AW2" s="0">
+        <v>-6.6668427962352386</v>
+      </c>
+      <c r="AX2" s="0">
+        <v>-8.4852813742385749</v>
+      </c>
+      <c r="AY2" s="0">
+        <v>-9.9776353476305424</v>
+      </c>
+      <c r="AZ2" s="0">
+        <v>-11.086554390135436</v>
+      </c>
+      <c r="BA2" s="0">
+        <v>-11.769423364838762</v>
+      </c>
+      <c r="BB2" s="0">
+        <v>-12</v>
+      </c>
+      <c r="BC2" s="0">
+        <v>-11.769423364838763</v>
+      </c>
+      <c r="BD2" s="0">
+        <v>-11.08655439013544</v>
+      </c>
+      <c r="BE2" s="0">
+        <v>-9.9776353476305459</v>
+      </c>
+      <c r="BF2" s="0">
+        <v>-8.485281374238582</v>
+      </c>
+      <c r="BG2" s="0">
+        <v>-6.6668427962352474</v>
+      </c>
+      <c r="BH2" s="0">
+        <v>-4.5922011883810683</v>
+      </c>
+      <c r="BI2" s="0">
+        <v>-2.341083864193537</v>
+      </c>
+      <c r="BJ2" s="0">
+        <v>-5.878304635907295e-15</v>
+      </c>
+      <c r="BK2" s="0">
+        <v>2.3410838641935259</v>
+      </c>
+      <c r="BL2" s="0">
+        <v>4.5922011883810567</v>
+      </c>
+      <c r="BM2" s="0">
+        <v>6.6668427962352368</v>
+      </c>
+      <c r="BN2" s="0">
+        <v>8.4852813742385731</v>
+      </c>
+      <c r="BO2" s="0">
+        <v>216.9615506024416</v>
+      </c>
+      <c r="BP2" s="0">
+        <v>205.63538588866822</v>
+      </c>
+      <c r="BQ2" s="0">
+        <v>187.17526542690123</v>
+      </c>
+      <c r="BR2" s="0">
+        <v>162.26116064347025</v>
+      </c>
+      <c r="BS2" s="0">
+        <v>131.82219381635772</v>
+      </c>
+      <c r="BT2" s="0">
+        <v>97.000889219720762</v>
+      </c>
+      <c r="BU2" s="0">
+        <v>59.109225004626467</v>
+      </c>
+      <c r="BV2" s="0">
+        <v>19.578174654165913</v>
+      </c>
+      <c r="BW2" s="0">
+        <v>-20.097322954453166</v>
+      </c>
+      <c r="BX2" s="0">
+        <v>-58.415850169827756</v>
+      </c>
+      <c r="BY2" s="0">
+        <v>-93.927244746130199</v>
+      </c>
+      <c r="BZ2" s="0">
+        <v>-125.28836294481647</v>
+      </c>
+      <c r="CA2" s="0">
+        <v>-151.3147286657065</v>
+      </c>
+      <c r="CB2" s="0">
+        <v>-171.02608381045553</v>
+      </c>
+      <c r="CC2" s="0">
+        <v>-183.68408945173698</v>
+      </c>
+      <c r="CD2" s="0">
+        <v>-188.82072901973885</v>
+      </c>
+      <c r="CE2" s="0">
+        <v>-186.25632203206183</v>
+      </c>
+      <c r="CF2" s="0">
+        <v>-176.10645615238758</v>
+      </c>
+      <c r="CG2" s="0">
+        <v>-158.77757122405316</v>
+      </c>
+      <c r="CH2" s="0">
+        <v>-134.95136502132647</v>
+      </c>
+      <c r="CI2" s="0">
+        <v>-105.55862003477702</v>
+      </c>
+      <c r="CJ2" s="0">
+        <v>-71.743457149403923</v>
+      </c>
+      <c r="CK2" s="0">
+        <v>-34.819389961915491</v>
+      </c>
+      <c r="CL2" s="0">
+        <v>3.7811314209554219</v>
+      </c>
+      <c r="CM2" s="0">
+        <v>42.561748066921965</v>
+      </c>
+      <c r="CN2" s="0">
+        <v>80.019676670957892</v>
+      </c>
+      <c r="CO2" s="0">
+        <v>114.70344165098128</v>
+      </c>
+      <c r="CP2" s="0">
+        <v>145.26863624531546</v>
+      </c>
+      <c r="CQ2" s="0">
+        <v>170.5295697163042</v>
+      </c>
+      <c r="CR2" s="0">
+        <v>189.50481586015746</v>
+      </c>
+      <c r="CS2" s="0">
+        <v>201.45491239352026</v>
+      </c>
+      <c r="CT2" s="0">
+        <v>205.91076242564594</v>
+      </c>
+      <c r="CU2" s="0">
+        <v>202.69164653964543</v>
+      </c>
+      <c r="CV2" s="0">
+        <v>191.91215326566601</v>
+      </c>
+      <c r="CW2" s="0">
+        <v>173.97776158971507</v>
+      </c>
+      <c r="CX2" s="0">
+        <v>149.56924523859686</v>
+      </c>
+      <c r="CY2" s="0">
+        <v>119.61649805511968</v>
+      </c>
+      <c r="CZ2" s="0">
+        <v>85.262786320083094</v>
+      </c>
+      <c r="DA2" s="0">
+        <v>47.820801765367726</v>
+      </c>
+      <c r="DB2" s="0">
+        <v>8.7222041180262586</v>
+      </c>
+      <c r="DC2" s="0">
+        <v>-30.537407790363996</v>
+      </c>
+      <c r="DD2" s="0">
+        <v>-68.455981636486356</v>
+      </c>
+      <c r="DE2" s="0">
+        <v>-103.58274481649883</v>
+      </c>
+      <c r="DF2" s="0">
+        <v>-134.57396661629053</v>
+      </c>
+      <c r="DG2" s="0">
+        <v>-160.24460644679581</v>
+      </c>
+      <c r="DH2" s="0">
+        <v>-179.61386334601434</v>
+      </c>
+      <c r="DI2" s="0">
+        <v>-191.94287631974328</v>
+      </c>
+      <c r="DJ2" s="0">
+        <v>-196.76312673136286</v>
+      </c>
+      <c r="DK2" s="0">
+        <v>-193.89445126554307</v>
+      </c>
+      <c r="DL2" s="0">
+        <v>-183.45197325007422</v>
+      </c>
+      <c r="DM2" s="0">
+        <v>-165.84168598083031</v>
+      </c>
+      <c r="DN2" s="0">
+        <v>-141.74485779158127</v>
+      </c>
+      <c r="DO2" s="0">
+        <v>-112.0918581840053</v>
+      </c>
+      <c r="DP2" s="0">
+        <v>-78.026410875566938</v>
+      </c>
+      <c r="DQ2" s="0">
+        <v>-40.861647510688265</v>
+      </c>
+      <c r="DR2" s="0">
+        <v>-2.0296508761786072</v>
+      </c>
+      <c r="DS2" s="0">
+        <v>36.973573343792808</v>
+      </c>
+      <c r="DT2" s="0">
+        <v>74.645581559595414</v>
+      </c>
+      <c r="DU2" s="0">
+        <v>109.53522489025049</v>
+      </c>
+      <c r="DV2" s="0">
+        <v>140.29841075946104</v>
+      </c>
+      <c r="DW2" s="0">
+        <v>165.74975057869815</v>
+      </c>
+      <c r="DX2" s="0">
+        <v>184.90810871814807</v>
+      </c>
+      <c r="DY2" s="0">
+        <v>197.03430233671733</v>
+      </c>
+      <c r="DZ2" s="0">
+        <v>201.65950328065614</v>
+      </c>
+      <c r="EA2" s="0">
+        <v>198.60325057491963</v>
       </c>
     </row>
     <row r="3">
@@ -202,52 +1000,394 @@
         <v>2</v>
       </c>
       <c r="B3" s="0">
-        <v>123.1106226125389</v>
+        <v>44.04034578537695</v>
       </c>
       <c r="C3" s="0">
-        <v>98.068526947677157</v>
+        <v>12.542756964540327</v>
       </c>
       <c r="D3" s="0">
-        <v>95.502753324891941</v>
+        <v>12.442184635676837</v>
       </c>
       <c r="E3" s="0">
-        <v>89.422011831170252</v>
+        <v>12.272513192635104</v>
       </c>
       <c r="F3" s="0">
-        <v>83.073411287667355</v>
+        <v>12.05732228946691</v>
       </c>
       <c r="G3" s="0">
-        <v>80.492674998195668</v>
+        <v>11.827863168505468</v>
       </c>
       <c r="H3" s="0">
-        <v>83.502334843728377</v>
+        <v>11.619248769521263</v>
       </c>
       <c r="I3" s="0">
-        <v>89.972394659367538</v>
+        <v>11.465141839206687</v>
       </c>
       <c r="J3" s="0">
-        <v>95.908261103142948</v>
+        <v>11.391555870083703</v>
       </c>
       <c r="K3" s="0">
-        <v>98.068526947677157</v>
+        <v>11.41127530782382</v>
       </c>
       <c r="L3" s="0">
-        <v>95.502753324891941</v>
+        <v>11.520850572514224</v>
       </c>
       <c r="M3" s="0">
-        <v>89.422011831170252</v>
+        <v>11.701426253199713</v>
       </c>
       <c r="N3" s="0">
-        <v>83.073411287667355</v>
+        <v>11.923042213730483</v>
       </c>
       <c r="O3" s="0">
-        <v>80.492674998195668</v>
+        <v>12.150704065591688</v>
       </c>
       <c r="P3" s="0">
-        <v>83.502334843728377</v>
+        <v>12.350344709944443</v>
       </c>
       <c r="Q3" s="0">
-        <v>89.972394659367538</v>
+        <v>12.493537490612745</v>
+      </c>
+      <c r="R3" s="0">
+        <v>12.560669221074017</v>
+      </c>
+      <c r="S3" s="0">
+        <v>12.542756964540327</v>
+      </c>
+      <c r="T3" s="0">
+        <v>12.44218463567683</v>
+      </c>
+      <c r="U3" s="0">
+        <v>12.272513192635101</v>
+      </c>
+      <c r="V3" s="0">
+        <v>12.05732228946691</v>
+      </c>
+      <c r="W3" s="0">
+        <v>11.827863168505468</v>
+      </c>
+      <c r="X3" s="0">
+        <v>11.619248769521262</v>
+      </c>
+      <c r="Y3" s="0">
+        <v>11.465141839206694</v>
+      </c>
+      <c r="Z3" s="0">
+        <v>11.391555870083709</v>
+      </c>
+      <c r="AA3" s="0">
+        <v>11.41127530782382</v>
+      </c>
+      <c r="AB3" s="0">
+        <v>11.520850572514243</v>
+      </c>
+      <c r="AC3" s="0">
+        <v>11.701426253199683</v>
+      </c>
+      <c r="AD3" s="0">
+        <v>11.923042213730479</v>
+      </c>
+      <c r="AE3" s="0">
+        <v>12.150704065591693</v>
+      </c>
+      <c r="AF3" s="0">
+        <v>12.350344709944412</v>
+      </c>
+      <c r="AG3" s="0">
+        <v>12.493537490612772</v>
+      </c>
+      <c r="AH3" s="0">
+        <v>12.560669221074013</v>
+      </c>
+      <c r="AI3" s="0">
+        <v>12.542756964540333</v>
+      </c>
+      <c r="AJ3" s="0">
+        <v>12.442184635676844</v>
+      </c>
+      <c r="AK3" s="0">
+        <v>12.272513192635097</v>
+      </c>
+      <c r="AL3" s="0">
+        <v>12.05732228946691</v>
+      </c>
+      <c r="AM3" s="0">
+        <v>11.827863168505466</v>
+      </c>
+      <c r="AN3" s="0">
+        <v>11.61924876952126</v>
+      </c>
+      <c r="AO3" s="0">
+        <v>11.465141839206687</v>
+      </c>
+      <c r="AP3" s="0">
+        <v>11.391555870083685</v>
+      </c>
+      <c r="AQ3" s="0">
+        <v>11.411275307823786</v>
+      </c>
+      <c r="AR3" s="0">
+        <v>11.520850572514368</v>
+      </c>
+      <c r="AS3" s="0">
+        <v>11.701426253199688</v>
+      </c>
+      <c r="AT3" s="0">
+        <v>11.923042213730428</v>
+      </c>
+      <c r="AU3" s="0">
+        <v>12.150704065591635</v>
+      </c>
+      <c r="AV3" s="0">
+        <v>12.350344709944412</v>
+      </c>
+      <c r="AW3" s="0">
+        <v>12.4935374906129</v>
+      </c>
+      <c r="AX3" s="0">
+        <v>12.560669221073985</v>
+      </c>
+      <c r="AY3" s="0">
+        <v>12.542756964540311</v>
+      </c>
+      <c r="AZ3" s="0">
+        <v>12.442184635676824</v>
+      </c>
+      <c r="BA3" s="0">
+        <v>12.272513192635099</v>
+      </c>
+      <c r="BB3" s="0">
+        <v>12.057322289466912</v>
+      </c>
+      <c r="BC3" s="0">
+        <v>11.827863168505466</v>
+      </c>
+      <c r="BD3" s="0">
+        <v>11.61924876952126</v>
+      </c>
+      <c r="BE3" s="0">
+        <v>11.465141839206687</v>
+      </c>
+      <c r="BF3" s="0">
+        <v>11.39155587008368</v>
+      </c>
+      <c r="BG3" s="0">
+        <v>11.411275307823786</v>
+      </c>
+      <c r="BH3" s="0">
+        <v>11.52085057251437</v>
+      </c>
+      <c r="BI3" s="0">
+        <v>11.70142625319969</v>
+      </c>
+      <c r="BJ3" s="0">
+        <v>11.923042213730428</v>
+      </c>
+      <c r="BK3" s="0">
+        <v>12.150704065591638</v>
+      </c>
+      <c r="BL3" s="0">
+        <v>12.350344709944412</v>
+      </c>
+      <c r="BM3" s="0">
+        <v>12.493537490612892</v>
+      </c>
+      <c r="BN3" s="0">
+        <v>12.560669221073983</v>
+      </c>
+      <c r="BO3" s="0">
+        <v>1083.7013272576869</v>
+      </c>
+      <c r="BP3" s="0">
+        <v>213.57274928893602</v>
+      </c>
+      <c r="BQ3" s="0">
+        <v>209.46050965282737</v>
+      </c>
+      <c r="BR3" s="0">
+        <v>205.98268505845519</v>
+      </c>
+      <c r="BS3" s="0">
+        <v>203.49361352629421</v>
+      </c>
+      <c r="BT3" s="0">
+        <v>202.13824743119196</v>
+      </c>
+      <c r="BU3" s="0">
+        <v>201.83021594726935</v>
+      </c>
+      <c r="BV3" s="0">
+        <v>202.27967833643169</v>
+      </c>
+      <c r="BW3" s="0">
+        <v>203.06262413306078</v>
+      </c>
+      <c r="BX3" s="0">
+        <v>203.70996916807795</v>
+      </c>
+      <c r="BY3" s="0">
+        <v>203.79391706844328</v>
+      </c>
+      <c r="BZ3" s="0">
+        <v>202.9973598460038</v>
+      </c>
+      <c r="CA3" s="0">
+        <v>201.16154119484602</v>
+      </c>
+      <c r="CB3" s="0">
+        <v>198.31261742159094</v>
+      </c>
+      <c r="CC3" s="0">
+        <v>194.66843419123069</v>
+      </c>
+      <c r="CD3" s="0">
+        <v>190.62436736941316</v>
+      </c>
+      <c r="CE3" s="0">
+        <v>186.71366314033659</v>
+      </c>
+      <c r="CF3" s="0">
+        <v>183.53646465704591</v>
+      </c>
+      <c r="CG3" s="0">
+        <v>181.6571294250225</v>
+      </c>
+      <c r="CH3" s="0">
+        <v>181.48468671678182</v>
+      </c>
+      <c r="CI3" s="0">
+        <v>183.17074264499695</v>
+      </c>
+      <c r="CJ3" s="0">
+        <v>186.56521666927205</v>
+      </c>
+      <c r="CK3" s="0">
+        <v>191.24910240601324</v>
+      </c>
+      <c r="CL3" s="0">
+        <v>196.62719993585409</v>
+      </c>
+      <c r="CM3" s="0">
+        <v>202.04191560756149</v>
+      </c>
+      <c r="CN3" s="0">
+        <v>206.87430092367708</v>
+      </c>
+      <c r="CO3" s="0">
+        <v>210.61722732256405</v>
+      </c>
+      <c r="CP3" s="0">
+        <v>212.92081116599414</v>
+      </c>
+      <c r="CQ3" s="0">
+        <v>213.61623790226238</v>
+      </c>
+      <c r="CR3" s="0">
+        <v>212.72374323486528</v>
+      </c>
+      <c r="CS3" s="0">
+        <v>210.44758174604763</v>
+      </c>
+      <c r="CT3" s="0">
+        <v>207.15751280750735</v>
+      </c>
+      <c r="CU3" s="0">
+        <v>203.35361758375663</v>
+      </c>
+      <c r="CV3" s="0">
+        <v>199.61019662687482</v>
+      </c>
+      <c r="CW3" s="0">
+        <v>196.49705838351588</v>
+      </c>
+      <c r="CX3" s="0">
+        <v>194.48475859843828</v>
+      </c>
+      <c r="CY3" s="0">
+        <v>193.85310414898436</v>
+      </c>
+      <c r="CZ3" s="0">
+        <v>194.63157549337629</v>
+      </c>
+      <c r="DA3" s="0">
+        <v>196.59522165744005</v>
+      </c>
+      <c r="DB3" s="0">
+        <v>199.31845657293596</v>
+      </c>
+      <c r="DC3" s="0">
+        <v>202.26606401641524</v>
+      </c>
+      <c r="DD3" s="0">
+        <v>204.89185354169283</v>
+      </c>
+      <c r="DE3" s="0">
+        <v>206.72272692443036</v>
+      </c>
+      <c r="DF3" s="0">
+        <v>207.41906847684939</v>
+      </c>
+      <c r="DG3" s="0">
+        <v>206.8118697511191</v>
+      </c>
+      <c r="DH3" s="0">
+        <v>204.92031154516403</v>
+      </c>
+      <c r="DI3" s="0">
+        <v>201.95245967700825</v>
+      </c>
+      <c r="DJ3" s="0">
+        <v>198.28867297221916</v>
+      </c>
+      <c r="DK3" s="0">
+        <v>194.44410925096608</v>
+      </c>
+      <c r="DL3" s="0">
+        <v>191.00541620851121</v>
+      </c>
+      <c r="DM3" s="0">
+        <v>188.54040429816692</v>
+      </c>
+      <c r="DN3" s="0">
+        <v>187.49084993799076</v>
+      </c>
+      <c r="DO3" s="0">
+        <v>188.07465052752499</v>
+      </c>
+      <c r="DP3" s="0">
+        <v>190.23210456428987</v>
+      </c>
+      <c r="DQ3" s="0">
+        <v>193.63898673606499</v>
+      </c>
+      <c r="DR3" s="0">
+        <v>197.7801494361436</v>
+      </c>
+      <c r="DS3" s="0">
+        <v>202.0534725740452</v>
+      </c>
+      <c r="DT3" s="0">
+        <v>205.87125939994678</v>
+      </c>
+      <c r="DU3" s="0">
+        <v>208.73962886828099</v>
+      </c>
+      <c r="DV3" s="0">
+        <v>210.31142069947171</v>
+      </c>
+      <c r="DW3" s="0">
+        <v>210.41625568848588</v>
+      </c>
+      <c r="DX3" s="0">
+        <v>209.07281920379546</v>
+      </c>
+      <c r="DY3" s="0">
+        <v>206.486297826738</v>
+      </c>
+      <c r="DZ3" s="0">
+        <v>203.03063384195056</v>
+      </c>
+      <c r="EA3" s="0">
+        <v>199.21227822463493</v>
       </c>
     </row>
   </sheetData>
